--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_02_beg.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_02_beg.xlsx
@@ -48,7 +48,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">At the same time, an argument over tails catches Gavial’s attention. 
+    <t xml:space="preserve">At the same time, an argument over tails catches Gavial's attention. 
 </t>
   </si>
   <si>
